--- a/scripts/simulation_vision.xlsx
+++ b/scripts/simulation_vision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eshta\Documents\EB\UofT\Semester 2 - Winter 2023\INF3104\Paper\Final Paper\datasheet_quality_analysis\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147EABCF-7A6D-4A45-81C4-6C2D1761B4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869077D-FB9D-4A8B-8C8D-2B3EB2085F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="1" xr2:uid="{DEB4D7DA-172A-4198-9636-3923D3C13701}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{DEB4D7DA-172A-4198-9636-3923D3C13701}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>q_num</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>score</t>
+  </si>
+  <si>
+    <t>datasheet_version</t>
   </si>
 </sst>
 </file>
@@ -446,301 +449,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444BD056-CBEC-4005-A685-424AC9DDFD17}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.31640625" customWidth="1"/>
+    <col min="1" max="1" width="15.76953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A19">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A22">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A28">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A29">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A30">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A31">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A32">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A34">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A36">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A37">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A38">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A39">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A40">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A41">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A42">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A43">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A44">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A46">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A47">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A48">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A49">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A50">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A51">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51">
         <v>50</v>
       </c>
     </row>
@@ -751,336 +758,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7636BE-545A-412E-82E8-B99474BD5315}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.31640625" customWidth="1"/>
+    <col min="1" max="1" width="15.76953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A19">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A22">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A23">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A24">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A26">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A27">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A28">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A29">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A30">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A31">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A32">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A34">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A36">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A37">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A38">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A39">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A40">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A41">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A42">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A43">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A44">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A46">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A47">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A48">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A49">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A50">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A51">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A52">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A53">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A54">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A55">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A56">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A57">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A58">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B58">
         <v>57</v>
       </c>
     </row>

--- a/scripts/simulation_vision.xlsx
+++ b/scripts/simulation_vision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eshta\Documents\EB\UofT\Semester 2 - Winter 2023\INF3104\Paper\Final Paper\datasheet_quality_analysis\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C869077D-FB9D-4A8B-8C8D-2B3EB2085F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05371F7-8B72-43C3-9383-7ADF69BC3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{DEB4D7DA-172A-4198-9636-3923D3C13701}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="2" xr2:uid="{DEB4D7DA-172A-4198-9636-3923D3C13701}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>q_num</t>
   </si>
@@ -61,9 +61,6 @@
     <t>datasheet_id</t>
   </si>
   <si>
-    <t>title of paper</t>
-  </si>
-  <si>
     <t>shortcut title</t>
   </si>
   <si>
@@ -91,13 +88,13 @@
     <t>max_question_num</t>
   </si>
   <si>
-    <t>top_10_frequent_words_overall</t>
-  </si>
-  <si>
     <t>score</t>
   </si>
   <si>
     <t>datasheet_version</t>
+  </si>
+  <si>
+    <t>top_5_frequent_words_overall</t>
   </si>
 </sst>
 </file>
@@ -451,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444BD056-CBEC-4005-A685-424AC9DDFD17}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -465,7 +462,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -774,7 +771,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1102,29 +1099,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EFDA69-6FDF-4566-BBA9-0D97E634BDDC}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="11.31640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.2265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.2265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.2265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="10" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.953125" customWidth="1"/>
-    <col min="13" max="13" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.2265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.2265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.953125" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1147,122 +1144,119 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
       <c r="D2">
-        <v>2018</v>
-      </c>
-      <c r="E2">
         <v>5000</v>
       </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
       <c r="G2">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="J2">
-        <v>500</v>
-      </c>
-      <c r="K2">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>15</v>
       </c>
